--- a/PASSWORD CHECKER/nssf_passwords.xlsx
+++ b/PASSWORD CHECKER/nssf_passwords.xlsx
@@ -1,47 +1,268 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\BCL AUTOMATIONS\Bcl_Automations\PASSWORD CHECKER\dist\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+  </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Log In User</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>AKASH DISTRIBUTORS (K) LIMITED</t>
+  </si>
+  <si>
+    <t>20817231</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>AGROLT SOLUTIONS PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>2368044X</t>
+  </si>
+  <si>
+    <t>BEARINGS AND INDUSTRIAL SUPPLIES LIMITED</t>
+  </si>
+  <si>
+    <t>BEARINGSLTD</t>
+  </si>
+  <si>
+    <t>kanaklata</t>
+  </si>
+  <si>
+    <t>BOOKSMART CONSULTANCY LIMITED</t>
+  </si>
+  <si>
+    <t>21967733</t>
+  </si>
+  <si>
+    <t>2196773</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>BIN TECH CONSULTANCY LIMITED</t>
+  </si>
+  <si>
+    <t>22332049</t>
+  </si>
+  <si>
+    <t>PATTHAR AFRICA LIMITED</t>
+  </si>
+  <si>
+    <t>INDOSELLA CONSTRUCTION EQUIPMENTS MFG LIMITED</t>
+  </si>
+  <si>
+    <t>GEEYANZI TRADING CO LIMITED</t>
+  </si>
+  <si>
+    <t>SIMSTEL CONNECT LIMITED</t>
+  </si>
+  <si>
+    <t>KENDU STEEL LIMITED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRASADAM LIMITED </t>
+  </si>
+  <si>
+    <t>MAHABALVIRA ENTERPRISE LIMITED</t>
+  </si>
+  <si>
+    <t>FILAMENT TECHNOLOGIES LIMITED</t>
+  </si>
+  <si>
+    <t>WILDERNESS IN LUXURY DESTINATIONS LIMITED</t>
+  </si>
+  <si>
+    <t>FIVE STAR APARTMENTS MANAGEMENT LIMITED</t>
+  </si>
+  <si>
+    <t>SF02275848</t>
+  </si>
+  <si>
+    <t>LIVEAL LIMITED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIVEALLIMI </t>
+  </si>
+  <si>
+    <t>HONEYCOMB PRODUCTION (K) LIMITED</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>JALARAM MINI MART LIMITED</t>
+  </si>
+  <si>
+    <t>To be registered</t>
+  </si>
+  <si>
+    <t>JMR INFOTECH KENYA LIMITED</t>
+  </si>
+  <si>
+    <t>VINAYAK OVERSEAS LIMITED</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>SBNP VENTURES LIMITED</t>
+  </si>
+  <si>
+    <t>2169690X</t>
+  </si>
+  <si>
+    <t>NAZISH MOTORS LIMITED</t>
+  </si>
+  <si>
+    <t>NAZISHMOTORS</t>
+  </si>
+  <si>
+    <t>NMOTORS11</t>
+  </si>
+  <si>
+    <t>SHUKRUPA BUILDERS LIMITED</t>
+  </si>
+  <si>
+    <t>Password to retrieve</t>
+  </si>
+  <si>
+    <t>SHREENATHJI DEVELOPERS CO</t>
+  </si>
+  <si>
+    <t>SF21979332</t>
+  </si>
+  <si>
+    <t>UNIVERSAL AUTO EXPERTS LIMITED</t>
+  </si>
+  <si>
+    <t>SF2201750X</t>
+  </si>
+  <si>
+    <t>THE FOOD BAZAAR LIMITED</t>
+  </si>
+  <si>
+    <t>SF22165312</t>
+  </si>
+  <si>
+    <t>FIVE ELEMENTS TECHNOLOGIES LIMITED</t>
+  </si>
+  <si>
+    <t>SF22165711</t>
+  </si>
+  <si>
+    <t>FASHION WORD LIMITED</t>
+  </si>
+  <si>
+    <t>SF22179666</t>
+  </si>
+  <si>
+    <t>KUSHWAHA TECHNO SERVICES LTD</t>
+  </si>
+  <si>
+    <t>SF22179712</t>
+  </si>
+  <si>
+    <t>UNIVERSAL MOTORS LIMITED</t>
+  </si>
+  <si>
+    <t>UniversalLtd</t>
+  </si>
+  <si>
+    <t>universalltd1</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="12"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -49,87 +270,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Payroll  2008                              CMS" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -454,149 +695,449 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Log In User</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>password</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>STATUS</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AKASH DISTRIBUTORS (K) LIMITED</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>20817231</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>20817231</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>Valid</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AGROLT SOLUTIONS PRIVATE LIMITED</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2368044X</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2368044X</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>Valid</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>BEARINGS AND INDUSTRIAL SUPPLIES LIMITED</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>BEARINGSLTD</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>kanaklata</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>Valid</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>BOOKSMART CONSULTANCY LIMITED</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>21967733</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2196773</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>Invalid</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>BIN TECH CONSULTANCY LIMITED</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>22332049</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>22332049</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>Valid</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>20817231</v>
+      </c>
+      <c r="C7" s="5">
+        <v>20817231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4">
+        <v>20188099</v>
+      </c>
+      <c r="C8" s="5">
+        <v>20188099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="7">
+        <v>21089019</v>
+      </c>
+      <c r="C9" s="8">
+        <v>21089019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4">
+        <v>21967733</v>
+      </c>
+      <c r="C10" s="5">
+        <v>21967733</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="9">
+        <v>22181113</v>
+      </c>
+      <c r="C11" s="10">
+        <v>22181113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="9">
+        <v>22332049</v>
+      </c>
+      <c r="C12" s="10">
+        <v>22332049</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="9">
+        <v>22435425</v>
+      </c>
+      <c r="C13" s="10">
+        <v>22435425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="11">
+        <v>22486461</v>
+      </c>
+      <c r="C14" s="12">
+        <v>22486461</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="13">
+        <v>22954457</v>
+      </c>
+      <c r="C15" s="5">
+        <v>22954457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="4">
+        <v>23699728</v>
+      </c>
+      <c r="C16" s="5">
+        <v>23699728</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="4">
+        <v>23725877</v>
+      </c>
+      <c r="C17" s="4">
+        <v>23725877</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="9">
+        <v>24035696</v>
+      </c>
+      <c r="C18" s="10">
+        <v>24035696</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="5">
+        <v>53467658</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="10">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="13">
+        <v>541799917</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="13">
+        <v>541799917</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="11">
+        <v>23046805</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
